--- a/todos.xlsx
+++ b/todos.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Todo 1</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>Todo 3</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>Todo 4</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Todo 5</t>
         </is>
       </c>
     </row>
